--- a/test instance.xlsx
+++ b/test instance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ota/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinxie/Desktop/2020_新電腦/NCTUIIM/109-1/Advanced Algorithm/hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B1713-5C83-224E-866F-0EC84A2BBDD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149A9DB-8B46-F842-A372-379B68A0AEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11360" xr2:uid="{1F106DBB-03E2-DC45-A9A8-91CF7E172302}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1F106DBB-03E2-DC45-A9A8-91CF7E172302}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
